--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -2,31 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData Processed by Jeff\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-30480" yWindow="470" windowWidth="26180" windowHeight="16130"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Source:</t>
   </si>
@@ -133,6 +128,9 @@
     <t>not as peakers.</t>
   </si>
   <si>
+    <t>lignite</t>
+  </si>
+  <si>
     <t>hard coal</t>
   </si>
   <si>
@@ -142,29 +140,20 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Update for Canada</t>
-  </si>
-  <si>
-    <t>It is assumed that Canada's power grid is similar to the US's grid,</t>
-  </si>
-  <si>
-    <t>so this generally means the same types of plants are peaker and provide flexibility.</t>
-  </si>
-  <si>
-    <t>The only change is adding hydro as a plant that provides flexibility to the grid,</t>
-  </si>
-  <si>
-    <t>since there is massive capacity that Canada has not been fully exploited.</t>
-  </si>
-  <si>
-    <t>coal to gas</t>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,20 +165,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,13 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,9 +261,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -320,9 +296,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -526,23 +502,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,143 +526,118 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -700,31 +651,29 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -732,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -740,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -748,15 +697,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -764,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -772,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -780,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -788,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -796,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -804,21 +753,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>0</v>
       </c>
     </row>
@@ -832,31 +808,29 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -864,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -872,23 +846,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -896,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -904,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -912,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -920,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -928,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -936,21 +910,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,27 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/BPaFF/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{41F2A529-05CD-5849-AA9A-FE7FC1D8CC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B93027-51C4-4973-B900-4E7AF76B211D}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B0EBA653-B171-994E-A10F-5FEE46A779D7}</author>
+  </authors>
+  <commentList>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{B0EBA653-B171-994E-A10F-5FEE46A779D7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Eyab Al-Aini I have added the three additional plant types from the US file. Who at Pembina can confirm the assumption that Canada generally looks like the US with the exception of hydro (per the assumption described here)?
+Reply:
+    @Nick Schumacher, this would be the same assumption to check wihtin the elecricity team.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Source:</t>
   </si>
@@ -128,9 +163,6 @@
     <t>not as peakers.</t>
   </si>
   <si>
-    <t>lignite</t>
-  </si>
-  <si>
     <t>hard coal</t>
   </si>
   <si>
@@ -140,6 +172,24 @@
     <t>offshore wind</t>
   </si>
   <si>
+    <t>Update for Canada</t>
+  </si>
+  <si>
+    <t>It is assumed that Canada's power grid is similar to the US's grid,</t>
+  </si>
+  <si>
+    <t>so this generally means the same types of plants are peaker and provide flexibility.</t>
+  </si>
+  <si>
+    <t>The only change is adding hydro as a plant that provides flexibility to the grid,</t>
+  </si>
+  <si>
+    <t>since there is massive capacity that Canada has not been fully exploited.</t>
+  </si>
+  <si>
+    <t>coal to gas</t>
+  </si>
+  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -152,8 +202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +215,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,14 +254,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,6 +276,15 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Eyab Al-Aini" id="{CB7183F0-225C-E946-B661-79477F464553}" userId="eyaba@pembina.org" providerId="PeoplePicker"/>
+  <person displayName="Nick Schumacher" id="{C63FE096-85BC-4142-A6D5-5CFEB20F6ED1}" userId="nicks@pembina.org" providerId="PeoplePicker"/>
+  <person displayName="Eyab Al-Aini" id="{6D53DB51-3A9D-4A93-82D8-0BDAC56C46E5}" userId="S::eyaba@pembina.org::e48cb72f-8969-4f81-87bc-9db77bc6adc6" providerId="AD"/>
+  <person displayName="Betsy Agar" id="{235DA6D1-D7FF-704E-AD6C-D1D9B7D68956}" userId="S::betsya@pembina.org::bba46dfa-1448-49db-8a85-9735cb4ceae1" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -261,9 +333,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -296,9 +368,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -500,13 +572,32 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A31" dT="2021-12-22T23:50:50.69" personId="{235DA6D1-D7FF-704E-AD6C-D1D9B7D68956}" id="{B0EBA653-B171-994E-A10F-5FEE46A779D7}">
+    <text>@Eyab Al-Aini I have added the three additional plant types from the US file. Who at Pembina can confirm the assumption that Canada generally looks like the US with the exception of hydro (per the assumption described here)?</text>
+    <mentions>
+      <mention mentionpersonId="{CB7183F0-225C-E946-B661-79477F464553}" mentionId="{7AAEFED9-C950-1D45-B005-3295189BFAEA}" startIndex="0" length="13"/>
+    </mentions>
+  </threadedComment>
+  <threadedComment ref="A31" dT="2022-04-29T07:56:31.04" personId="{6D53DB51-3A9D-4A93-82D8-0BDAC56C46E5}" id="{516C4164-1A7F-4D0F-A845-555D10D4B701}" parentId="{B0EBA653-B171-994E-A10F-5FEE46A779D7}">
+    <text>@Nick Schumacher, this would be the same assumption to check wihtin the elecricity team.</text>
+    <mentions>
+      <mention mentionpersonId="{C63FE096-85BC-4142-A6D5-5CFEB20F6ED1}" mentionId="{08A85DA9-447A-43A7-9338-EA92BBF48F35}" startIndex="0" length="16"/>
+    </mentions>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -640,14 +731,40 @@
         <v>34</v>
       </c>
     </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -655,19 +772,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -699,7 +816,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -755,7 +872,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -764,7 +881,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <f>B6</f>
@@ -773,7 +890,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <f>B11</f>
@@ -782,7 +899,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <f>B11</f>
@@ -791,7 +908,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <f>B9</f>
@@ -804,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -812,19 +929,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -851,12 +968,12 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -912,7 +1029,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <f>B2</f>
@@ -921,7 +1038,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <f>B6</f>
@@ -930,7 +1047,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <f>B11</f>
@@ -939,7 +1056,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <f>B11</f>
@@ -948,7 +1065,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <f>B9</f>
@@ -958,4 +1075,322 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89731934-4269-4F0A-9676-7C76DFB0C264}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CFC4749-13B5-4F55-8405-3CF5D2896DB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED2756B-5AEB-4056-B78F-A091DD74FA46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,7 +17,7 @@
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -58,6 +59,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
+    <t>BPaFF Boolean Is This Plant Type a Peaker</t>
+  </si>
+  <si>
+    <t>BPaFF Boolean Does This Plant Type Provide Flexibility</t>
+  </si>
+  <si>
     <t>Source:</t>
   </si>
   <si>
@@ -67,6 +74,87 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>These variables are used to customize which plant types are used</t>
+  </si>
+  <si>
+    <t>to satisfy peaking needs and which provide flexibility points, which</t>
+  </si>
+  <si>
+    <t>support renewables in the EPS.</t>
+  </si>
+  <si>
+    <t>Peaker plants:</t>
+  </si>
+  <si>
+    <t>Are built if peak need is not satisfied after plants are built</t>
+  </si>
+  <si>
+    <t>for annual energy purposes.</t>
+  </si>
+  <si>
+    <t>Are guaranteed a minimum dispatch level equal based on</t>
+  </si>
+  <si>
+    <t>their expected capacity factors, as they are dispatched for</t>
+  </si>
+  <si>
+    <t>reasons other than their cost-effectiveness.</t>
+  </si>
+  <si>
+    <t>Plants that provide flexibility:</t>
+  </si>
+  <si>
+    <t>Provide flexibility points based on installed capacity.</t>
+  </si>
+  <si>
+    <t>Generally, the same plants that are flagged as peakers should</t>
+  </si>
+  <si>
+    <t>also be flagged as flexibility providers, and vice versa.</t>
+  </si>
+  <si>
+    <t>However, some countries might aggressively ramp plants</t>
+  </si>
+  <si>
+    <t>that are normally used for baseload, such as coal or</t>
+  </si>
+  <si>
+    <t>nuclear, to provide flexibility.   However, these plants</t>
+  </si>
+  <si>
+    <t>still don't generally get built to satisfy peaking needs</t>
+  </si>
+  <si>
+    <t>and shouldn't be guaranteed a minimum dispatch quantity.</t>
+  </si>
+  <si>
+    <t>These plants should be flagged as flexibility providers but</t>
+  </si>
+  <si>
+    <t>not as peakers.</t>
+  </si>
+  <si>
+    <t>Update for Canada</t>
+  </si>
+  <si>
+    <t>It is assumed that Canada's power grid is similar to the US's grid,</t>
+  </si>
+  <si>
+    <t>so this generally means the same types of plants are peaker and provide flexibility.</t>
+  </si>
+  <si>
+    <t>The only change is adding hydro as a plant that provides flexibility to the grid,</t>
+  </si>
+  <si>
+    <t>since there is massive capacity that Canada has not been fully exploited.</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
     <t>natural gas nonpeaker</t>
   </si>
   <si>
@@ -76,6 +164,9 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -94,100 +185,10 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>BPaFF Boolean Is This Plant Type a Peaker</t>
-  </si>
-  <si>
-    <t>BPaFF Boolean Does This Plant Type Provide Flexibility</t>
-  </si>
-  <si>
-    <t>These variables are used to customize which plant types are used</t>
-  </si>
-  <si>
-    <t>to satisfy peaking needs and which provide flexibility points, which</t>
-  </si>
-  <si>
-    <t>support renewables in the EPS.</t>
-  </si>
-  <si>
-    <t>Peaker plants:</t>
-  </si>
-  <si>
-    <t>Are built if peak need is not satisfied after plants are built</t>
-  </si>
-  <si>
-    <t>for annual energy purposes.</t>
-  </si>
-  <si>
-    <t>Are guaranteed a minimum dispatch level equal based on</t>
-  </si>
-  <si>
-    <t>their expected capacity factors, as they are dispatched for</t>
-  </si>
-  <si>
-    <t>reasons other than their cost-effectiveness.</t>
-  </si>
-  <si>
-    <t>Plants that provide flexibility:</t>
-  </si>
-  <si>
-    <t>Provide flexibility points based on installed capacity.</t>
-  </si>
-  <si>
-    <t>Generally, the same plants that are flagged as peakers should</t>
-  </si>
-  <si>
-    <t>also be flagged as flexibility providers, and vice versa.</t>
-  </si>
-  <si>
-    <t>However, some countries might aggressively ramp plants</t>
-  </si>
-  <si>
-    <t>that are normally used for baseload, such as coal or</t>
-  </si>
-  <si>
-    <t>nuclear, to provide flexibility.   However, these plants</t>
-  </si>
-  <si>
-    <t>still don't generally get built to satisfy peaking needs</t>
-  </si>
-  <si>
-    <t>and shouldn't be guaranteed a minimum dispatch quantity.</t>
-  </si>
-  <si>
-    <t>These plants should be flagged as flexibility providers but</t>
-  </si>
-  <si>
-    <t>not as peakers.</t>
-  </si>
-  <si>
-    <t>hard coal</t>
-  </si>
-  <si>
-    <t>onshore wind</t>
+    <t>coal to gas</t>
   </si>
   <si>
     <t>offshore wind</t>
-  </si>
-  <si>
-    <t>Update for Canada</t>
-  </si>
-  <si>
-    <t>It is assumed that Canada's power grid is similar to the US's grid,</t>
-  </si>
-  <si>
-    <t>so this generally means the same types of plants are peaker and provide flexibility.</t>
-  </si>
-  <si>
-    <t>The only change is adding hydro as a plant that provides flexibility to the grid,</t>
-  </si>
-  <si>
-    <t>since there is massive capacity that Canada has not been fully exploited.</t>
-  </si>
-  <si>
-    <t>coal to gas</t>
   </si>
   <si>
     <t>crude oil</t>
@@ -203,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,13 +255,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,163 +596,154 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -772,123 +762,123 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -897,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -906,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -929,123 +919,123 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1054,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1063,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1078,15 +1068,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -1099,13 +1080,25 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -1129,6 +1122,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1215,6 +1210,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -1350,47 +1357,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89731934-4269-4F0A-9676-7C76DFB0C264}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CFC4749-13B5-4F55-8405-3CF5D2896DB1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CFC4749-13B5-4F55-8405-3CF5D2896DB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89731934-4269-4F0A-9676-7C76DFB0C264}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ED2756B-5AEB-4056-B78F-A091DD74FA46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{727B5BF5-62CD-4899-8E76-82615A161240}"/>
 </file>
--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData Processed by Jeff\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/BPaFF/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{41F2A529-05CD-5849-AA9A-FE7FC1D8CC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B93027-51C4-4973-B900-4E7AF76B211D}"/>
   <bookViews>
-    <workbookView xWindow="-30480" yWindow="470" windowWidth="26180" windowHeight="16130"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,8 +36,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B0EBA653-B171-994E-A10F-5FEE46A779D7}</author>
+  </authors>
+  <commentList>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{B0EBA653-B171-994E-A10F-5FEE46A779D7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Eyab Al-Aini I have added the three additional plant types from the US file. Who at Pembina can confirm the assumption that Canada generally looks like the US with the exception of hydro (per the assumption described here)?
+Reply:
+    @Nick Schumacher, this would be the same assumption to check wihtin the elecricity team.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+  <si>
+    <t>BPaFF Boolean Is This Plant Type a Peaker</t>
+  </si>
+  <si>
+    <t>BPaFF Boolean Does This Plant Type Provide Flexibility</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
@@ -37,6 +74,87 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>These variables are used to customize which plant types are used</t>
+  </si>
+  <si>
+    <t>to satisfy peaking needs and which provide flexibility points, which</t>
+  </si>
+  <si>
+    <t>support renewables in the EPS.</t>
+  </si>
+  <si>
+    <t>Peaker plants:</t>
+  </si>
+  <si>
+    <t>Are built if peak need is not satisfied after plants are built</t>
+  </si>
+  <si>
+    <t>for annual energy purposes.</t>
+  </si>
+  <si>
+    <t>Are guaranteed a minimum dispatch level equal based on</t>
+  </si>
+  <si>
+    <t>their expected capacity factors, as they are dispatched for</t>
+  </si>
+  <si>
+    <t>reasons other than their cost-effectiveness.</t>
+  </si>
+  <si>
+    <t>Plants that provide flexibility:</t>
+  </si>
+  <si>
+    <t>Provide flexibility points based on installed capacity.</t>
+  </si>
+  <si>
+    <t>Generally, the same plants that are flagged as peakers should</t>
+  </si>
+  <si>
+    <t>also be flagged as flexibility providers, and vice versa.</t>
+  </si>
+  <si>
+    <t>However, some countries might aggressively ramp plants</t>
+  </si>
+  <si>
+    <t>that are normally used for baseload, such as coal or</t>
+  </si>
+  <si>
+    <t>nuclear, to provide flexibility.   However, these plants</t>
+  </si>
+  <si>
+    <t>still don't generally get built to satisfy peaking needs</t>
+  </si>
+  <si>
+    <t>and shouldn't be guaranteed a minimum dispatch quantity.</t>
+  </si>
+  <si>
+    <t>These plants should be flagged as flexibility providers but</t>
+  </si>
+  <si>
+    <t>not as peakers.</t>
+  </si>
+  <si>
+    <t>Update for Canada</t>
+  </si>
+  <si>
+    <t>It is assumed that Canada's power grid is similar to the US's grid,</t>
+  </si>
+  <si>
+    <t>so this generally means the same types of plants are peaker and provide flexibility.</t>
+  </si>
+  <si>
+    <t>The only change is adding hydro as a plant that provides flexibility to the grid,</t>
+  </si>
+  <si>
+    <t>since there is massive capacity that Canada has not been fully exploited.</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
     <t>natural gas nonpeaker</t>
   </si>
   <si>
@@ -46,6 +164,9 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -64,107 +185,26 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>BPaFF Boolean Is This Plant Type a Peaker</t>
-  </si>
-  <si>
-    <t>BPaFF Boolean Does This Plant Type Provide Flexibility</t>
-  </si>
-  <si>
-    <t>These variables are used to customize which plant types are used</t>
-  </si>
-  <si>
-    <t>to satisfy peaking needs and which provide flexibility points, which</t>
-  </si>
-  <si>
-    <t>support renewables in the EPS.</t>
-  </si>
-  <si>
-    <t>Peaker plants:</t>
-  </si>
-  <si>
-    <t>Are built if peak need is not satisfied after plants are built</t>
-  </si>
-  <si>
-    <t>for annual energy purposes.</t>
-  </si>
-  <si>
-    <t>Are guaranteed a minimum dispatch level equal based on</t>
-  </si>
-  <si>
-    <t>their expected capacity factors, as they are dispatched for</t>
-  </si>
-  <si>
-    <t>reasons other than their cost-effectiveness.</t>
-  </si>
-  <si>
-    <t>Plants that provide flexibility:</t>
-  </si>
-  <si>
-    <t>Provide flexibility points based on installed capacity.</t>
-  </si>
-  <si>
-    <t>Generally, the same plants that are flagged as peakers should</t>
-  </si>
-  <si>
-    <t>also be flagged as flexibility providers, and vice versa.</t>
-  </si>
-  <si>
-    <t>However, some countries might aggressively ramp plants</t>
-  </si>
-  <si>
-    <t>that are normally used for baseload, such as coal or</t>
-  </si>
-  <si>
-    <t>nuclear, to provide flexibility.   However, these plants</t>
-  </si>
-  <si>
-    <t>still don't generally get built to satisfy peaking needs</t>
-  </si>
-  <si>
-    <t>and shouldn't be guaranteed a minimum dispatch quantity.</t>
-  </si>
-  <si>
-    <t>These plants should be flagged as flexibility providers but</t>
-  </si>
-  <si>
-    <t>not as peakers.</t>
-  </si>
-  <si>
-    <t>hard coal</t>
-  </si>
-  <si>
-    <t>onshore wind</t>
+    <t>coal to gas</t>
   </si>
   <si>
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Update for Canada</t>
-  </si>
-  <si>
-    <t>It is assumed that Canada's power grid is similar to the US's grid,</t>
-  </si>
-  <si>
-    <t>so this generally means the same types of plants are peaker and provide flexibility.</t>
-  </si>
-  <si>
-    <t>The only change is adding hydro as a plant that provides flexibility to the grid,</t>
-  </si>
-  <si>
-    <t>since there is massive capacity that Canada has not been fully exploited.</t>
-  </si>
-  <si>
-    <t>coal to gas</t>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +255,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,6 +275,15 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Eyab Al-Aini" id="{CB7183F0-225C-E946-B661-79477F464553}" userId="eyaba@pembina.org" providerId="PeoplePicker"/>
+  <person displayName="Nick Schumacher" id="{C63FE096-85BC-4142-A6D5-5CFEB20F6ED1}" userId="nicks@pembina.org" providerId="PeoplePicker"/>
+  <person displayName="Eyab Al-Aini" id="{6D53DB51-3A9D-4A93-82D8-0BDAC56C46E5}" userId="S::eyaba@pembina.org::e48cb72f-8969-4f81-87bc-9db77bc6adc6" providerId="AD"/>
+  <person displayName="Betsy Agar" id="{235DA6D1-D7FF-704E-AD6C-D1D9B7D68956}" userId="S::betsya@pembina.org::bba46dfa-1448-49db-8a85-9735cb4ceae1" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,301 +571,337 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A31" dT="2021-12-22T23:50:50.69" personId="{235DA6D1-D7FF-704E-AD6C-D1D9B7D68956}" id="{B0EBA653-B171-994E-A10F-5FEE46A779D7}">
+    <text>@Eyab Al-Aini I have added the three additional plant types from the US file. Who at Pembina can confirm the assumption that Canada generally looks like the US with the exception of hydro (per the assumption described here)?</text>
+    <mentions>
+      <mention mentionpersonId="{CB7183F0-225C-E946-B661-79477F464553}" mentionId="{7AAEFED9-C950-1D45-B005-3295189BFAEA}" startIndex="0" length="13"/>
+    </mentions>
+  </threadedComment>
+  <threadedComment ref="A31" dT="2022-04-29T07:56:31.04" personId="{6D53DB51-3A9D-4A93-82D8-0BDAC56C46E5}" id="{516C4164-1A7F-4D0F-A845-555D10D4B701}" parentId="{B0EBA653-B171-994E-A10F-5FEE46A779D7}">
+    <text>@Nick Schumacher, this would be the same assumption to check wihtin the elecricity team.</text>
+    <mentions>
+      <mention mentionpersonId="{C63FE096-85BC-4142-A6D5-5CFEB20F6ED1}" mentionId="{08A85DA9-447A-43A7-9338-EA92BBF48F35}" startIndex="0" length="16"/>
+    </mentions>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>0</v>
       </c>
     </row>
@@ -828,133 +911,459 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CFC4749-13B5-4F55-8405-3CF5D2896DB1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89731934-4269-4F0A-9676-7C76DFB0C264}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{727B5BF5-62CD-4899-8E76-82615A161240}"/>
 </file>
--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,27 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25409"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/BPaFF/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{41F2A529-05CD-5849-AA9A-FE7FC1D8CC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8B93027-51C4-4973-B900-4E7AF76B211D}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B0EBA653-B171-994E-A10F-5FEE46A779D7}</author>
+  </authors>
+  <commentList>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{B0EBA653-B171-994E-A10F-5FEE46A779D7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Eyab Al-Aini I have added the three additional plant types from the US file. Who at Pembina can confirm the assumption that Canada generally looks like the US with the exception of hydro (per the assumption described here)?
+Reply:
+    @Nick Schumacher, this would be the same assumption to check wihtin the elecricity team.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+  <si>
+    <t>BPaFF Boolean Is This Plant Type a Peaker</t>
+  </si>
+  <si>
+    <t>BPaFF Boolean Does This Plant Type Provide Flexibility</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
@@ -32,6 +74,87 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>These variables are used to customize which plant types are used</t>
+  </si>
+  <si>
+    <t>to satisfy peaking needs and which provide flexibility points, which</t>
+  </si>
+  <si>
+    <t>support renewables in the EPS.</t>
+  </si>
+  <si>
+    <t>Peaker plants:</t>
+  </si>
+  <si>
+    <t>Are built if peak need is not satisfied after plants are built</t>
+  </si>
+  <si>
+    <t>for annual energy purposes.</t>
+  </si>
+  <si>
+    <t>Are guaranteed a minimum dispatch level equal based on</t>
+  </si>
+  <si>
+    <t>their expected capacity factors, as they are dispatched for</t>
+  </si>
+  <si>
+    <t>reasons other than their cost-effectiveness.</t>
+  </si>
+  <si>
+    <t>Plants that provide flexibility:</t>
+  </si>
+  <si>
+    <t>Provide flexibility points based on installed capacity.</t>
+  </si>
+  <si>
+    <t>Generally, the same plants that are flagged as peakers should</t>
+  </si>
+  <si>
+    <t>also be flagged as flexibility providers, and vice versa.</t>
+  </si>
+  <si>
+    <t>However, some countries might aggressively ramp plants</t>
+  </si>
+  <si>
+    <t>that are normally used for baseload, such as coal or</t>
+  </si>
+  <si>
+    <t>nuclear, to provide flexibility.   However, these plants</t>
+  </si>
+  <si>
+    <t>still don't generally get built to satisfy peaking needs</t>
+  </si>
+  <si>
+    <t>and shouldn't be guaranteed a minimum dispatch quantity.</t>
+  </si>
+  <si>
+    <t>These plants should be flagged as flexibility providers but</t>
+  </si>
+  <si>
+    <t>not as peakers.</t>
+  </si>
+  <si>
+    <t>Update for Canada</t>
+  </si>
+  <si>
+    <t>It is assumed that Canada's power grid is similar to the US's grid,</t>
+  </si>
+  <si>
+    <t>so this generally means the same types of plants are peaker and provide flexibility.</t>
+  </si>
+  <si>
+    <t>The only change is adding hydro as a plant that provides flexibility to the grid,</t>
+  </si>
+  <si>
+    <t>since there is massive capacity that Canada has not been fully exploited.</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
     <t>natural gas nonpeaker</t>
   </si>
   <si>
@@ -41,6 +164,9 @@
     <t>hydro</t>
   </si>
   <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -59,82 +185,7 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>BPaFF Boolean Is This Plant Type a Peaker</t>
-  </si>
-  <si>
-    <t>BPaFF Boolean Does This Plant Type Provide Flexibility</t>
-  </si>
-  <si>
-    <t>These variables are used to customize which plant types are used</t>
-  </si>
-  <si>
-    <t>to satisfy peaking needs and which provide flexibility points, which</t>
-  </si>
-  <si>
-    <t>support renewables in the EPS.</t>
-  </si>
-  <si>
-    <t>Peaker plants:</t>
-  </si>
-  <si>
-    <t>Are built if peak need is not satisfied after plants are built</t>
-  </si>
-  <si>
-    <t>for annual energy purposes.</t>
-  </si>
-  <si>
-    <t>Are guaranteed a minimum dispatch level equal based on</t>
-  </si>
-  <si>
-    <t>their expected capacity factors, as they are dispatched for</t>
-  </si>
-  <si>
-    <t>reasons other than their cost-effectiveness.</t>
-  </si>
-  <si>
-    <t>Plants that provide flexibility:</t>
-  </si>
-  <si>
-    <t>Provide flexibility points based on installed capacity.</t>
-  </si>
-  <si>
-    <t>Generally, the same plants that are flagged as peakers should</t>
-  </si>
-  <si>
-    <t>also be flagged as flexibility providers, and vice versa.</t>
-  </si>
-  <si>
-    <t>However, some countries might aggressively ramp plants</t>
-  </si>
-  <si>
-    <t>that are normally used for baseload, such as coal or</t>
-  </si>
-  <si>
-    <t>nuclear, to provide flexibility.   However, these plants</t>
-  </si>
-  <si>
-    <t>still don't generally get built to satisfy peaking needs</t>
-  </si>
-  <si>
-    <t>and shouldn't be guaranteed a minimum dispatch quantity.</t>
-  </si>
-  <si>
-    <t>These plants should be flagged as flexibility providers but</t>
-  </si>
-  <si>
-    <t>not as peakers.</t>
-  </si>
-  <si>
-    <t>lignite</t>
-  </si>
-  <si>
-    <t>hard coal</t>
-  </si>
-  <si>
-    <t>onshore wind</t>
+    <t>coal to gas</t>
   </si>
   <si>
     <t>offshore wind</t>
@@ -152,8 +203,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +216,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,14 +255,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,6 +275,15 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Eyab Al-Aini" id="{CB7183F0-225C-E946-B661-79477F464553}" userId="eyaba@pembina.org" providerId="PeoplePicker"/>
+  <person displayName="Nick Schumacher" id="{C63FE096-85BC-4142-A6D5-5CFEB20F6ED1}" userId="nicks@pembina.org" providerId="PeoplePicker"/>
+  <person displayName="Eyab Al-Aini" id="{6D53DB51-3A9D-4A93-82D8-0BDAC56C46E5}" userId="S::eyaba@pembina.org::e48cb72f-8969-4f81-87bc-9db77bc6adc6" providerId="AD"/>
+  <person displayName="Betsy Agar" id="{235DA6D1-D7FF-704E-AD6C-D1D9B7D68956}" userId="S::betsya@pembina.org::bba46dfa-1448-49db-8a85-9735cb4ceae1" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -261,9 +332,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -296,9 +367,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -500,154 +571,190 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A31" dT="2021-12-22T23:50:50.69" personId="{235DA6D1-D7FF-704E-AD6C-D1D9B7D68956}" id="{B0EBA653-B171-994E-A10F-5FEE46A779D7}">
+    <text>@Eyab Al-Aini I have added the three additional plant types from the US file. Who at Pembina can confirm the assumption that Canada generally looks like the US with the exception of hydro (per the assumption described here)?</text>
+    <mentions>
+      <mention mentionpersonId="{CB7183F0-225C-E946-B661-79477F464553}" mentionId="{7AAEFED9-C950-1D45-B005-3295189BFAEA}" startIndex="0" length="13"/>
+    </mentions>
+  </threadedComment>
+  <threadedComment ref="A31" dT="2022-04-29T07:56:31.04" personId="{6D53DB51-3A9D-4A93-82D8-0BDAC56C46E5}" id="{516C4164-1A7F-4D0F-A845-555D10D4B701}" parentId="{B0EBA653-B171-994E-A10F-5FEE46A779D7}">
+    <text>@Nick Schumacher, this would be the same assumption to check wihtin the elecricity team.</text>
+    <mentions>
+      <mention mentionpersonId="{C63FE096-85BC-4142-A6D5-5CFEB20F6ED1}" mentionId="{08A85DA9-447A-43A7-9338-EA92BBF48F35}" startIndex="0" length="16"/>
+    </mentions>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -655,143 +762,143 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <f>B11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <f>B11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <f>B9</f>
@@ -804,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -812,143 +919,143 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <f>B2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <f>B11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <f>B11</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <f>B9</f>
@@ -958,4 +1065,305 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CFC4749-13B5-4F55-8405-3CF5D2896DB1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89731934-4269-4F0A-9676-7C76DFB0C264}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{727B5BF5-62CD-4899-8E76-82615A161240}"/>
 </file>
--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1097,8 +1097,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -1124,6 +1124,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1224,6 +1225,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1365,5 +1371,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{727B5BF5-62CD-4899-8E76-82615A161240}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A2B64B4-0024-4E38-8DBD-1D742CDEE279}"/>
 </file>